--- a/data/litrev.xlsx
+++ b/data/litrev.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1A8F53-F6D1-4ACF-B797-826E41545428}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total_rna" sheetId="1" r:id="rId1"/>
     <sheet name="Raw_data_calc" sheetId="2" r:id="rId2"/>
     <sheet name="millward1973" sheetId="3" r:id="rId3"/>
+    <sheet name="training_volume_signaling" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="197">
   <si>
     <t>study</t>
   </si>
@@ -381,16 +389,247 @@
   </si>
   <si>
     <t>MRI</t>
+  </si>
+  <si>
+    <t>study_id</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>study_design</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>volume_dependence</t>
+  </si>
+  <si>
+    <t>RN1837</t>
+  </si>
+  <si>
+    <t>participants_sex</t>
+  </si>
+  <si>
+    <t>participant_age</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>IRS-I Ser636/639</t>
+  </si>
+  <si>
+    <t>LKB1 Ser428</t>
+  </si>
+  <si>
+    <t>Akt Ser473</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>CaMKII Thr286</t>
+  </si>
+  <si>
+    <t>AMPKα Thr172</t>
+  </si>
+  <si>
+    <t>AS160 Thr642</t>
+  </si>
+  <si>
+    <t>p70S6K Thr421/ Ser424</t>
+  </si>
+  <si>
+    <t>rpS6 Ser235/236</t>
+  </si>
+  <si>
+    <t>rpS6 Ser240/244</t>
+  </si>
+  <si>
+    <t>eEF2 Thr56.</t>
+  </si>
+  <si>
+    <t>RN2716</t>
+  </si>
+  <si>
+    <t>Bilateral leg press</t>
+  </si>
+  <si>
+    <t>Unilateral leg extension</t>
+  </si>
+  <si>
+    <t>S6K1 Thr389</t>
+  </si>
+  <si>
+    <t>0-1 hours</t>
+  </si>
+  <si>
+    <t>1-2 hours</t>
+  </si>
+  <si>
+    <t>2-4 hours</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>3 vs. 6 sets</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>10RM</t>
+  </si>
+  <si>
+    <t>5 vs. 10 sets</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>RN784</t>
+  </si>
+  <si>
+    <t>6RM</t>
+  </si>
+  <si>
+    <t>1 vs. 3 vs. 6 sets</t>
+  </si>
+  <si>
+    <t>mTOR Ser2448</t>
+  </si>
+  <si>
+    <t>ERK 1/2 Thr202/Tyr204</t>
+  </si>
+  <si>
+    <t>p38 Thr180/Tyr182</t>
+  </si>
+  <si>
+    <t>p38 (gamma) Thr180/Tyr182</t>
+  </si>
+  <si>
+    <t>AMPK Thr172</t>
+  </si>
+  <si>
+    <t>RN791</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>29 hours</t>
+  </si>
+  <si>
+    <t>yes (6 sets higher than 1 and 3 sets)</t>
+  </si>
+  <si>
+    <t>eIF2B (epsilon) Ser539</t>
+  </si>
+  <si>
+    <t>p90RSK1 Thr573</t>
+  </si>
+  <si>
+    <t>yes (3 sets higher than 1 set)</t>
+  </si>
+  <si>
+    <t>yes (3 sets lower than 1 set)</t>
+  </si>
+  <si>
+    <t>Knee extension</t>
+  </si>
+  <si>
+    <t>RN834</t>
+  </si>
+  <si>
+    <t>1 vs. 3 sets</t>
+  </si>
+  <si>
+    <t>Kumar et al. (2012)</t>
+  </si>
+  <si>
+    <t>Ahtiainen et al. (2015)</t>
+  </si>
+  <si>
+    <t>Terzis et al. (2010)</t>
+  </si>
+  <si>
+    <t>Burd et al. (2010)</t>
+  </si>
+  <si>
+    <t>Mitchell et al. (2012)</t>
+  </si>
+  <si>
+    <t>Erk1/2 Thr202/Tyr204</t>
+  </si>
+  <si>
+    <t>p38 MAPK Thr180/Tyr182</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>time_after_exercise</t>
+  </si>
+  <si>
+    <t>Within-participant/Parallell groups.\nParticipants randomized to perform\neither 40 or 75 of 1RM with three and six sets.</t>
+  </si>
+  <si>
+    <t>Parallell groups.\nParticipants randomized to perform\neither 40 or 75 of 1RM with three and six sets.</t>
+  </si>
+  <si>
+    <t>Within-participant, cross-over design.\nOne, three or five sets of leg press\nperfomred in random order at least 2 weeks a part.</t>
+  </si>
+  <si>
+    <t>Within-participant cross-over design.\nUnilateral knee extension performed\nwith one or three sets in random order on separate days.</t>
+  </si>
+  <si>
+    <t>Analyzed as parallell groups.\nParticipants assigned to either one or three sets,\nor three sets at lower intensity.\nSignaling evaluated after first session of training intervention.</t>
+  </si>
+  <si>
+    <t>40 percentage of 1RM</t>
+  </si>
+  <si>
+    <t>75 percentage of 1 RM</t>
+  </si>
+  <si>
+    <t>70 percentage of 1RM</t>
+  </si>
+  <si>
+    <t>80 percentage of 1RM</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +649,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -723,31 +968,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.90625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +1051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -860,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -914,7 +1159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -968,7 +1213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1184,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1292,7 +1537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1570,7 +1815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1681,7 +1926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1735,7 +1980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1792,7 +2037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1849,7 +2094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1906,7 +2151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1963,7 +2208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2021,7 +2266,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -2076,7 +2321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2131,7 +2376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2186,7 +2431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2241,7 +2486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2296,7 +2541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2351,7 +2596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2406,7 +2651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2461,7 +2706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2516,7 +2761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2571,7 +2816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -2626,7 +2871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2681,7 +2926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2736,7 +2981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2791,7 +3036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -2842,7 +3087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -2893,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -2944,7 +3189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -3002,22 +3247,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AI50"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="L47" sqref="L47:L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -3028,7 +3273,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>30</v>
       </c>
@@ -3048,7 +3293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -3077,7 +3322,7 @@
         <v>8927.8994445200115</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3351,7 @@
         <v>3615.4348611300043</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -3126,7 +3371,7 @@
         <v>58.763115557584285</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -3155,7 +3400,7 @@
         <v>6679.6875000000018</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -3184,7 +3429,7 @@
         <v>11875.000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>E10-E9</f>
         <v>47.916699999999992</v>
@@ -3198,7 +3443,7 @@
         <v>65.61011736005355</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -3227,7 +3472,7 @@
         <v>4401.0308333400026</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -3256,7 +3501,7 @@
         <v>5104.1433333600053</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15">
         <f>E14-E13</f>
         <v>135.41669999999999</v>
@@ -3270,12 +3515,12 @@
         <v>43.839109252036614</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -3286,7 +3531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -3301,7 +3546,7 @@
         <v>1.0681817092265018</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -3316,7 +3561,7 @@
         <v>0.96017708894588882</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -3324,7 +3569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>43</v>
       </c>
@@ -3353,7 +3598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3381,7 +3626,7 @@
         <v>0.316227766016838</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -3418,7 +3663,7 @@
         <v>8.1300813008130071</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -3455,7 +3700,7 @@
         <v>10.569105691056912</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3483,7 +3728,7 @@
         <v>0.316227766016838</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -3520,7 +3765,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -3557,7 +3802,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>53</v>
       </c>
@@ -3568,7 +3813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>87</v>
       </c>
@@ -3594,7 +3839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>90</v>
       </c>
@@ -3611,7 +3856,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -3651,7 +3896,7 @@
         <v>15.035077261680975</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -3665,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
         <v>81</v>
       </c>
@@ -3673,7 +3918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>86</v>
       </c>
@@ -3705,7 +3950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -3765,7 +4010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -3796,7 +4041,7 @@
         <v>79</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" ref="L48:L49" si="6">(J48+C48)/C48</f>
+        <f t="shared" ref="L48" si="6">(J48+C48)/C48</f>
         <v>1.1423220973782771</v>
       </c>
       <c r="N48" t="s">
@@ -3825,7 +4070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -3885,7 +4130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>70</v>
       </c>
@@ -3907,20 +4152,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -3931,7 +4176,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.8346879999999999</v>
       </c>
@@ -3942,7 +4187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.401084</v>
       </c>
@@ -3953,7 +4198,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.4444439999999998</v>
       </c>
@@ -3964,7 +4209,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.4227639999999999</v>
       </c>
@@ -3975,7 +4220,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.7696480000000001</v>
       </c>
@@ -3986,7 +4231,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.0298100000000003</v>
       </c>
@@ -3997,7 +4242,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.8346879999999999</v>
       </c>
@@ -4008,7 +4253,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.1165310000000002</v>
       </c>
@@ -4019,7 +4264,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.2682929999999999</v>
       </c>
@@ -4030,7 +4275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.00542</v>
       </c>
@@ -4041,7 +4286,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7.9132790000000002</v>
       </c>
@@ -4052,7 +4297,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.9349590000000001</v>
       </c>
@@ -4063,7 +4308,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.2384819999999994</v>
       </c>
@@ -4074,7 +4319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.0867210000000007</v>
       </c>
@@ -4085,7 +4330,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.3902439999999991</v>
       </c>
@@ -4096,7 +4341,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8.5853660000000005</v>
       </c>
@@ -4107,7 +4352,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9.1924119999999991</v>
       </c>
@@ -4118,7 +4363,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9.3008129999999998</v>
       </c>
@@ -4129,7 +4374,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.3224929999999997</v>
       </c>
@@ -4140,7 +4385,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.149051</v>
       </c>
@@ -4151,7 +4396,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9.9078590000000002</v>
       </c>
@@ -4162,7 +4407,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9.9512199999999993</v>
       </c>
@@ -4173,7 +4418,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10.189702</v>
       </c>
@@ -4184,7 +4429,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10.211382</v>
       </c>
@@ -4195,7 +4440,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10.514905000000001</v>
       </c>
@@ -4206,7 +4451,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10.753387999999999</v>
       </c>
@@ -4217,7 +4462,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10.775067999999999</v>
       </c>
@@ -4228,7 +4473,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11.078590999999999</v>
       </c>
@@ -4239,7 +4484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11.338753000000001</v>
       </c>
@@ -4250,7 +4495,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.0081300000000004</v>
       </c>
@@ -4261,7 +4506,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.7018969999999998</v>
       </c>
@@ -4272,7 +4517,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.5284550000000001</v>
       </c>
@@ -4283,7 +4528,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.0731710000000003</v>
       </c>
@@ -4294,7 +4539,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.6612470000000004</v>
       </c>
@@ -4305,7 +4550,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.5528459999999997</v>
       </c>
@@ -4316,7 +4561,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4.3360430000000001</v>
       </c>
@@ -4327,7 +4572,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4.8346879999999999</v>
       </c>
@@ -4338,7 +4583,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.1382110000000001</v>
       </c>
@@ -4349,7 +4594,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.3766939999999996</v>
       </c>
@@ -4360,7 +4605,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6.3523040000000002</v>
       </c>
@@ -4371,7 +4616,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6.9376689999999996</v>
       </c>
@@ -4382,7 +4627,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7.5447150000000001</v>
       </c>
@@ -4393,7 +4638,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8.6720869999999994</v>
       </c>
@@ -4404,7 +4649,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10.796747999999999</v>
       </c>
@@ -4415,7 +4660,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11.252033000000001</v>
       </c>
@@ -4426,7 +4671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11.880758999999999</v>
       </c>
@@ -4437,7 +4682,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11.902438999999999</v>
       </c>
@@ -4448,7 +4693,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10.601626</v>
       </c>
@@ -4459,7 +4704,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10.926829</v>
       </c>
@@ -4470,7 +4715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12.596206</v>
       </c>
@@ -4481,7 +4726,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>13.788618</v>
       </c>
@@ -4492,7 +4737,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10.970190000000001</v>
       </c>
@@ -4507,4 +4752,2389 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A727A8-B7E7-4867-8BED-A81FFB495AEE}">
+  <dimension ref="A1:L62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="L36" sqref="L32:L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="161.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="33.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>2012</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5">
+        <v>2012</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6">
+        <v>2012</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>2012</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>2012</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10">
+        <v>2012</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11">
+        <v>2012</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>2012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <v>2012</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17">
+        <v>2012</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
+        <v>2012</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20">
+        <v>2012</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21">
+        <v>2012</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" t="s">
+        <v>193</v>
+      </c>
+      <c r="I21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22">
+        <v>2012</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24">
+        <v>2012</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25">
+        <v>2012</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27">
+        <v>2015</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28">
+        <v>2015</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29">
+        <v>2015</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30">
+        <v>2015</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" t="s">
+        <v>157</v>
+      </c>
+      <c r="L30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31">
+        <v>2015</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32">
+        <v>2015</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" t="s">
+        <v>157</v>
+      </c>
+      <c r="L32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33">
+        <v>2015</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" t="s">
+        <v>156</v>
+      </c>
+      <c r="J33" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34">
+        <v>2015</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" t="s">
+        <v>157</v>
+      </c>
+      <c r="L34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35">
+        <v>2015</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" t="s">
+        <v>157</v>
+      </c>
+      <c r="L35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36">
+        <v>2015</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37">
+        <v>2015</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" t="s">
+        <v>156</v>
+      </c>
+      <c r="J37" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38">
+        <v>2010</v>
+      </c>
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" t="s">
+        <v>157</v>
+      </c>
+      <c r="L38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39">
+        <v>2010</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40">
+        <v>2010</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" t="s">
+        <v>160</v>
+      </c>
+      <c r="J40" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40" t="s">
+        <v>157</v>
+      </c>
+      <c r="L40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41">
+        <v>2010</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" t="s">
+        <v>157</v>
+      </c>
+      <c r="L41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42">
+        <v>2010</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>189</v>
+      </c>
+      <c r="G42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" t="s">
+        <v>160</v>
+      </c>
+      <c r="J42" t="s">
+        <v>162</v>
+      </c>
+      <c r="K42" t="s">
+        <v>157</v>
+      </c>
+      <c r="L42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43">
+        <v>2010</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" t="s">
+        <v>159</v>
+      </c>
+      <c r="I43" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" t="s">
+        <v>163</v>
+      </c>
+      <c r="K43" t="s">
+        <v>157</v>
+      </c>
+      <c r="L43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44">
+        <v>2010</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44" t="s">
+        <v>164</v>
+      </c>
+      <c r="K44" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45">
+        <v>2010</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" t="s">
+        <v>160</v>
+      </c>
+      <c r="J45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K45" t="s">
+        <v>157</v>
+      </c>
+      <c r="L45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46">
+        <v>2010</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" t="s">
+        <v>167</v>
+      </c>
+      <c r="L46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <v>2010</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" t="s">
+        <v>177</v>
+      </c>
+      <c r="J47" t="s">
+        <v>171</v>
+      </c>
+      <c r="K47" t="s">
+        <v>168</v>
+      </c>
+      <c r="L47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48">
+        <v>2010</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" t="s">
+        <v>169</v>
+      </c>
+      <c r="L48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49">
+        <v>2010</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" t="s">
+        <v>172</v>
+      </c>
+      <c r="K49" t="s">
+        <v>167</v>
+      </c>
+      <c r="L49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50">
+        <v>2010</v>
+      </c>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" t="s">
+        <v>177</v>
+      </c>
+      <c r="J50" t="s">
+        <v>172</v>
+      </c>
+      <c r="K50" t="s">
+        <v>168</v>
+      </c>
+      <c r="L50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51">
+        <v>2010</v>
+      </c>
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G51" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51" t="s">
+        <v>177</v>
+      </c>
+      <c r="J51" t="s">
+        <v>172</v>
+      </c>
+      <c r="K51" t="s">
+        <v>169</v>
+      </c>
+      <c r="L51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52">
+        <v>2010</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" t="s">
+        <v>194</v>
+      </c>
+      <c r="I52" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52" t="s">
+        <v>145</v>
+      </c>
+      <c r="K52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53">
+        <v>2010</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" t="s">
+        <v>175</v>
+      </c>
+      <c r="H53" t="s">
+        <v>194</v>
+      </c>
+      <c r="I53" t="s">
+        <v>177</v>
+      </c>
+      <c r="J53" t="s">
+        <v>145</v>
+      </c>
+      <c r="K53" t="s">
+        <v>168</v>
+      </c>
+      <c r="L53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54">
+        <v>2010</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" t="s">
+        <v>175</v>
+      </c>
+      <c r="H54" t="s">
+        <v>194</v>
+      </c>
+      <c r="I54" t="s">
+        <v>177</v>
+      </c>
+      <c r="J54" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54" t="s">
+        <v>169</v>
+      </c>
+      <c r="L54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55">
+        <v>2010</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" t="s">
+        <v>175</v>
+      </c>
+      <c r="H55" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55" t="s">
+        <v>140</v>
+      </c>
+      <c r="K55" t="s">
+        <v>167</v>
+      </c>
+      <c r="L55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56">
+        <v>2010</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" t="s">
+        <v>175</v>
+      </c>
+      <c r="H56" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" t="s">
+        <v>140</v>
+      </c>
+      <c r="K56" t="s">
+        <v>168</v>
+      </c>
+      <c r="L56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57">
+        <v>2010</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" t="s">
+        <v>175</v>
+      </c>
+      <c r="H57" t="s">
+        <v>194</v>
+      </c>
+      <c r="I57" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" t="s">
+        <v>169</v>
+      </c>
+      <c r="L57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58">
+        <v>2010</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" t="s">
+        <v>194</v>
+      </c>
+      <c r="I58" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" t="s">
+        <v>185</v>
+      </c>
+      <c r="K58" t="s">
+        <v>167</v>
+      </c>
+      <c r="L58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59">
+        <v>2010</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" t="s">
+        <v>175</v>
+      </c>
+      <c r="H59" t="s">
+        <v>194</v>
+      </c>
+      <c r="I59" t="s">
+        <v>177</v>
+      </c>
+      <c r="J59" t="s">
+        <v>185</v>
+      </c>
+      <c r="K59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60">
+        <v>2012</v>
+      </c>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" t="s">
+        <v>195</v>
+      </c>
+      <c r="I60" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" t="s">
+        <v>152</v>
+      </c>
+      <c r="L60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61">
+        <v>2012</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>191</v>
+      </c>
+      <c r="G61" t="s">
+        <v>175</v>
+      </c>
+      <c r="H61" t="s">
+        <v>195</v>
+      </c>
+      <c r="I61" t="s">
+        <v>177</v>
+      </c>
+      <c r="J61" t="s">
+        <v>161</v>
+      </c>
+      <c r="K61" t="s">
+        <v>152</v>
+      </c>
+      <c r="L61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62">
+        <v>2012</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" t="s">
+        <v>175</v>
+      </c>
+      <c r="H62" t="s">
+        <v>195</v>
+      </c>
+      <c r="I62" t="s">
+        <v>177</v>
+      </c>
+      <c r="J62" t="s">
+        <v>132</v>
+      </c>
+      <c r="K62" t="s">
+        <v>152</v>
+      </c>
+      <c r="L62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/litrev.xlsx
+++ b/data/litrev.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1A8F53-F6D1-4ACF-B797-826E41545428}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D259DE1-C3B4-43AA-ADAF-5EA66229419C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="200">
   <si>
     <t>study</t>
   </si>
@@ -620,6 +620,15 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>rest period</t>
+  </si>
+  <si>
+    <t>2 min,  and 10 min between set 5 and 6 in the 10 set condition</t>
+  </si>
+  <si>
+    <t>2 min</t>
   </si>
 </sst>
 </file>
@@ -657,12 +666,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -677,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -689,6 +716,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4756,10 +4786,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A727A8-B7E7-4867-8BED-A81FFB495AEE}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="L36" sqref="L32:L36"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4768,16 +4798,16 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="161.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="33.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -4803,19 +4833,22 @@
         <v>150</v>
       </c>
       <c r="I1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" t="s">
         <v>149</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>186</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -4840,20 +4873,20 @@
       <c r="H2" t="s">
         <v>192</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>151</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>185</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>146</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -4878,20 +4911,20 @@
       <c r="H3" t="s">
         <v>192</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>151</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>185</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>147</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -4916,20 +4949,20 @@
       <c r="H4" t="s">
         <v>192</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>151</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>185</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>148</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -4954,20 +4987,20 @@
       <c r="H5" t="s">
         <v>192</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>151</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>185</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>146</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -4992,20 +5025,20 @@
       <c r="H6" t="s">
         <v>192</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>151</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>185</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>147</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -5030,20 +5063,20 @@
       <c r="H7" t="s">
         <v>192</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>151</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>185</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>148</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -5068,20 +5101,20 @@
       <c r="H8" t="s">
         <v>193</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>151</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>185</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>146</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -5106,20 +5139,20 @@
       <c r="H9" t="s">
         <v>193</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>151</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>185</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>147</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -5144,20 +5177,20 @@
       <c r="H10" t="s">
         <v>193</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>151</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>185</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>148</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -5182,20 +5215,20 @@
       <c r="H11" t="s">
         <v>193</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>151</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>185</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>146</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -5220,20 +5253,20 @@
       <c r="H12" t="s">
         <v>193</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>151</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>185</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>147</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -5258,20 +5291,20 @@
       <c r="H13" t="s">
         <v>193</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>151</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>185</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>148</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -5296,20 +5329,20 @@
       <c r="H14" t="s">
         <v>192</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>151</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>152</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -5334,20 +5367,20 @@
       <c r="H15" t="s">
         <v>192</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>151</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>153</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -5372,20 +5405,20 @@
       <c r="H16" t="s">
         <v>192</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>151</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>154</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -5410,20 +5443,20 @@
       <c r="H17" t="s">
         <v>192</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>151</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>152</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -5448,20 +5481,20 @@
       <c r="H18" t="s">
         <v>192</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>151</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>153</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -5486,20 +5519,20 @@
       <c r="H19" t="s">
         <v>192</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>151</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>154</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -5524,20 +5557,20 @@
       <c r="H20" t="s">
         <v>193</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>151</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>152</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -5562,20 +5595,20 @@
       <c r="H21" t="s">
         <v>193</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>151</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>153</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -5600,20 +5633,20 @@
       <c r="H22" t="s">
         <v>193</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>151</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>154</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -5638,20 +5671,20 @@
       <c r="H23" t="s">
         <v>193</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>151</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>152</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -5676,20 +5709,20 @@
       <c r="H24" t="s">
         <v>193</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>151</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>153</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -5714,20 +5747,20 @@
       <c r="H25" t="s">
         <v>193</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>151</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>154</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -5753,19 +5786,22 @@
         <v>155</v>
       </c>
       <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
         <v>156</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>130</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>157</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>179</v>
       </c>
@@ -5791,19 +5827,22 @@
         <v>155</v>
       </c>
       <c r="I27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
         <v>156</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>132</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>157</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -5829,19 +5868,22 @@
         <v>155</v>
       </c>
       <c r="I28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J28" t="s">
         <v>156</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>157</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -5867,19 +5909,22 @@
         <v>155</v>
       </c>
       <c r="I29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J29" t="s">
         <v>156</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>184</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>157</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>179</v>
       </c>
@@ -5905,19 +5950,22 @@
         <v>155</v>
       </c>
       <c r="I30" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30" t="s">
         <v>156</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>135</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>157</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -5943,19 +5991,22 @@
         <v>155</v>
       </c>
       <c r="I31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" t="s">
         <v>156</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>131</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>157</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>179</v>
       </c>
@@ -5981,19 +6032,22 @@
         <v>155</v>
       </c>
       <c r="I32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" t="s">
         <v>156</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>136</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>157</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -6019,19 +6073,22 @@
         <v>155</v>
       </c>
       <c r="I33" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" t="s">
         <v>156</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>137</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>157</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -6057,19 +6114,22 @@
         <v>155</v>
       </c>
       <c r="I34" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" t="s">
         <v>156</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>157</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -6095,19 +6155,22 @@
         <v>155</v>
       </c>
       <c r="I35" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" t="s">
         <v>156</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>157</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -6133,19 +6196,22 @@
         <v>155</v>
       </c>
       <c r="I36" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" t="s">
         <v>156</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>157</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -6171,19 +6237,22 @@
         <v>155</v>
       </c>
       <c r="I37" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37" t="s">
         <v>156</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>141</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>157</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -6209,19 +6278,22 @@
         <v>159</v>
       </c>
       <c r="I38" t="s">
+        <v>199</v>
+      </c>
+      <c r="J38" t="s">
         <v>160</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>132</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>157</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>180</v>
       </c>
@@ -6247,19 +6319,22 @@
         <v>159</v>
       </c>
       <c r="I39" t="s">
+        <v>199</v>
+      </c>
+      <c r="J39" t="s">
         <v>160</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>161</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>157</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>180</v>
       </c>
@@ -6285,19 +6360,22 @@
         <v>159</v>
       </c>
       <c r="I40" t="s">
+        <v>199</v>
+      </c>
+      <c r="J40" t="s">
         <v>160</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>157</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>180</v>
       </c>
@@ -6323,19 +6401,22 @@
         <v>159</v>
       </c>
       <c r="I41" t="s">
+        <v>199</v>
+      </c>
+      <c r="J41" t="s">
         <v>160</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>157</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>180</v>
       </c>
@@ -6361,19 +6442,22 @@
         <v>159</v>
       </c>
       <c r="I42" t="s">
+        <v>199</v>
+      </c>
+      <c r="J42" t="s">
         <v>160</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>157</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>180</v>
       </c>
@@ -6399,19 +6483,22 @@
         <v>159</v>
       </c>
       <c r="I43" t="s">
+        <v>199</v>
+      </c>
+      <c r="J43" t="s">
         <v>160</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>163</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>157</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -6437,19 +6524,22 @@
         <v>159</v>
       </c>
       <c r="I44" t="s">
+        <v>199</v>
+      </c>
+      <c r="J44" t="s">
         <v>160</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>164</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>157</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -6475,19 +6565,22 @@
         <v>159</v>
       </c>
       <c r="I45" t="s">
+        <v>199</v>
+      </c>
+      <c r="J45" t="s">
         <v>160</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>165</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>157</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -6512,20 +6605,20 @@
       <c r="H46" t="s">
         <v>194</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>177</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>171</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>167</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -6550,20 +6643,20 @@
       <c r="H47" t="s">
         <v>194</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>177</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>171</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>168</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -6588,20 +6681,20 @@
       <c r="H48" t="s">
         <v>194</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>177</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>171</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>169</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>181</v>
       </c>
@@ -6626,20 +6719,20 @@
       <c r="H49" t="s">
         <v>194</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>177</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>167</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -6664,20 +6757,20 @@
       <c r="H50" t="s">
         <v>194</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>177</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>168</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -6702,20 +6795,20 @@
       <c r="H51" t="s">
         <v>194</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>177</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>169</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -6740,20 +6833,20 @@
       <c r="H52" t="s">
         <v>194</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>177</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>167</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>181</v>
       </c>
@@ -6778,20 +6871,20 @@
       <c r="H53" t="s">
         <v>194</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>177</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>168</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -6816,20 +6909,20 @@
       <c r="H54" t="s">
         <v>194</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>177</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>169</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -6854,20 +6947,20 @@
       <c r="H55" t="s">
         <v>194</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>177</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>167</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -6892,20 +6985,20 @@
       <c r="H56" t="s">
         <v>194</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>177</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>168</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -6930,20 +7023,20 @@
       <c r="H57" t="s">
         <v>194</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>177</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>169</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>181</v>
       </c>
@@ -6968,20 +7061,20 @@
       <c r="H58" t="s">
         <v>194</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>177</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>185</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>167</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -7006,20 +7099,20 @@
       <c r="H59" t="s">
         <v>194</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>177</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>185</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>169</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -7044,20 +7137,20 @@
       <c r="H60" t="s">
         <v>195</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>177</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>152</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -7082,20 +7175,20 @@
       <c r="H61" t="s">
         <v>195</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>177</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>161</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>152</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -7120,16 +7213,16 @@
       <c r="H62" t="s">
         <v>195</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>177</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>132</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>152</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>134</v>
       </c>
     </row>

--- a/data/litrev.xlsx
+++ b/data/litrev.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D259DE1-C3B4-43AA-ADAF-5EA66229419C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54060690-C6C9-45C9-B0F3-AB976A4207C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4788,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A727A8-B7E7-4867-8BED-A81FFB495AEE}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
